--- a/template/potem6.xlsx
+++ b/template/potem6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B780A36-01F5-E040-8863-73167B446B3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214EE69-A6AA-7145-AD21-7C8018512F6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="嘉和信 " sheetId="1" r:id="rId1"/>
@@ -124,10 +124,13 @@
     <font>
       <sz val="12"/>
       <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="幼圆"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -147,18 +150,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -361,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,91 +366,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,9 +784,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -792,14 +799,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -820,16 +827,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -850,16 +857,16 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -880,16 +887,16 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -910,16 +917,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -940,18 +947,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -972,18 +979,18 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1004,14 +1011,14 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1032,24 +1039,24 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="32" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1070,14 +1077,14 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1098,14 +1105,14 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1126,14 +1133,14 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1154,14 +1161,14 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1182,14 +1189,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1210,14 +1217,14 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1238,14 +1245,14 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1266,14 +1273,14 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1294,14 +1301,14 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1322,14 +1329,14 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1350,14 +1357,14 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1378,14 +1385,14 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1406,16 +1413,16 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1436,14 +1443,14 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1464,14 +1471,14 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1492,16 +1499,16 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1522,14 +1529,14 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1550,13 +1557,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1578,13 +1585,13 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1606,13 +1613,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1634,13 +1641,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -28823,20 +28830,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/potem6.xlsx
+++ b/template/potem6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214EE69-A6AA-7145-AD21-7C8018512F6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3731A2-EFE0-4793-8314-264EBC071A0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="465" windowWidth="32520" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="嘉和信 " sheetId="1" r:id="rId1"/>
@@ -130,6 +130,7 @@
     <font>
       <sz val="14"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,17 +382,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -401,31 +391,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,25 +417,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,17 +785,19 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -827,15 +830,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -857,15 +860,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="7"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -887,15 +890,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -917,15 +920,15 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -947,17 +950,17 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -979,17 +982,17 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1011,13 +1014,13 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1039,21 +1042,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="7"/>
@@ -1078,9 +1081,9 @@
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1105,13 +1108,13 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1133,13 +1136,13 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1161,13 +1164,13 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1189,13 +1192,13 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1217,13 +1220,13 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1245,13 +1248,13 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1273,13 +1276,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1301,13 +1304,13 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1329,13 +1332,13 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1357,13 +1360,13 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1385,13 +1388,13 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1416,12 +1419,12 @@
       <c r="A22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1443,13 +1446,13 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1471,13 +1474,13 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1499,15 +1502,15 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1529,13 +1532,13 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -28830,6 +28833,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:D10"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
@@ -28838,12 +28847,6 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:D10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
